--- a/Comparacao Horus Green vs Easy Leaf.xlsx
+++ b/Comparacao Horus Green vs Easy Leaf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suelliton\Desktop\TCC-ALFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{393857CC-2349-4F87-8DE9-CECF54B81BED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9954DB9F-A3C0-4EA2-8335-01CA6EE5F329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{DAA7FF4C-5CD8-4BEF-A345-8EA920A83EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t xml:space="preserve">Comparação entre medidas de área foliar obtidas pelos softwares Horus Green e Easy Leaf </t>
   </si>
@@ -130,6 +130,81 @@
   </si>
   <si>
     <t>198.92 cm²</t>
+  </si>
+  <si>
+    <t>5 alfaces exp1</t>
+  </si>
+  <si>
+    <t>5 alfaces exp2</t>
+  </si>
+  <si>
+    <t>110.9 cm²</t>
+  </si>
+  <si>
+    <t>214.44 cm²</t>
+  </si>
+  <si>
+    <t>301.74 cm²</t>
+  </si>
+  <si>
+    <t>431.77 cm²</t>
+  </si>
+  <si>
+    <t>179.15 cm²</t>
+  </si>
+  <si>
+    <t>215.5 cm²</t>
+  </si>
+  <si>
+    <t>Exp 1 - 5 alfaces - quadrupede</t>
+  </si>
+  <si>
+    <t>Exp 2 - 5 alfaces - quadrupede</t>
+  </si>
+  <si>
+    <t>Exp 3 - 5 alfaces - monopod</t>
+  </si>
+  <si>
+    <t>16.94</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>14.48</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>73.64</t>
+  </si>
+  <si>
+    <t>12.27</t>
+  </si>
+  <si>
+    <t>8.15</t>
+  </si>
+  <si>
+    <t>5.47</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>12.37</t>
+  </si>
+  <si>
+    <t>11.12</t>
+  </si>
+  <si>
+    <t>69.61</t>
+  </si>
+  <si>
+    <t>13.92</t>
   </si>
 </sst>
 </file>
@@ -518,65 +593,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB78021B-BE89-47C3-A76B-C7E2F9170E3F}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43336</v>
       </c>
@@ -584,13 +667,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43339</v>
       </c>
@@ -598,19 +684,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43340</v>
       </c>
@@ -618,19 +707,22 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43341</v>
       </c>
@@ -638,19 +730,22 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43342</v>
       </c>
@@ -658,19 +753,22 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43343</v>
       </c>
@@ -678,50 +776,178 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>43339</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>43340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>43341</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>43342</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>43343</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Comparacao Horus Green vs Easy Leaf.xlsx
+++ b/Comparacao Horus Green vs Easy Leaf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suelliton\Desktop\TCC-ALFACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9954DB9F-A3C0-4EA2-8335-01CA6EE5F329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711B05C9-3CA4-4C4F-B84C-3A6D0556E243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{DAA7FF4C-5CD8-4BEF-A345-8EA920A83EC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t xml:space="preserve">Comparação entre medidas de área foliar obtidas pelos softwares Horus Green e Easy Leaf </t>
   </si>
@@ -205,6 +205,30 @@
   </si>
   <si>
     <t>13.92</t>
+  </si>
+  <si>
+    <t>6.87</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>30.55</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>22.03</t>
+  </si>
+  <si>
+    <t>68.9</t>
+  </si>
+  <si>
+    <t>11.48</t>
   </si>
 </sst>
 </file>
@@ -595,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB78021B-BE89-47C3-A76B-C7E2F9170E3F}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +631,8 @@
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -812,16 +837,16 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="E20" t="s">
         <v>46</v>
@@ -829,58 +854,153 @@
       <c r="F20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>47</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>48</v>
       </c>
       <c r="F22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>43336</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>43339</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
       <c r="E27" t="s">
         <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>43340</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
       <c r="E28" t="s">
         <v>52</v>
       </c>
       <c r="F28" t="s">
         <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>43341</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>43342</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>43343</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
